--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121233a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121233a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.4465775273781689</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.4687392452721583</v>
+      </c>
+      <c r="C5">
+        <v>0.4700516746658617</v>
+      </c>
+      <c r="D5">
+        <v>0.473393694239228</v>
+      </c>
+      <c r="E5">
+        <v>0.871905471998087</v>
+      </c>
+      <c r="F5">
+        <v>0.5469051377379158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4687392452721583</v>
+        <v>1.081391190323018</v>
       </c>
       <c r="C6">
-        <v>0.4700516746658617</v>
+        <v>1.050134335518183</v>
       </c>
       <c r="D6">
-        <v>0.473393694239228</v>
+        <v>1.015834425834278</v>
       </c>
       <c r="E6">
-        <v>0.871905471998087</v>
+        <v>3.672856423404262</v>
       </c>
       <c r="F6">
-        <v>0.5469051377379158</v>
+        <v>1.237668804895533</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.081391190323018</v>
+        <v>2.638459189157643</v>
       </c>
       <c r="C7">
-        <v>1.050134335518183</v>
+        <v>2.42690391504089</v>
       </c>
       <c r="D7">
-        <v>1.015834425834278</v>
+        <v>2.414291078899936</v>
       </c>
       <c r="E7">
-        <v>3.672856423404262</v>
+        <v>3.675647494676598</v>
       </c>
       <c r="F7">
-        <v>1.237668804895533</v>
+        <v>3.168529983323729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.059153936930237</v>
+      </c>
+      <c r="C8">
+        <v>2.164826765507693</v>
+      </c>
+      <c r="D8">
+        <v>2.229697793065498</v>
+      </c>
+      <c r="E8">
+        <v>5.805843548439388</v>
+      </c>
+      <c r="F8">
+        <v>2.786147104632326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>2.638459189157643</v>
+        <v>5.236022415491823</v>
       </c>
       <c r="C9">
-        <v>2.42690391504089</v>
+        <v>5.041205884434256</v>
       </c>
       <c r="D9">
-        <v>2.414291078899936</v>
+        <v>5.003977890881099</v>
       </c>
       <c r="E9">
-        <v>3.675647494676598</v>
+        <v>7.531325178676856</v>
       </c>
       <c r="F9">
-        <v>3.168529983323729</v>
+        <v>5.829928040706011</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2.059153936930237</v>
+        <v>3.10828400189295</v>
       </c>
       <c r="C10">
-        <v>2.164826765507693</v>
+        <v>2.767775318004789</v>
       </c>
       <c r="D10">
-        <v>2.229697793065498</v>
+        <v>2.790807768077353</v>
       </c>
       <c r="E10">
-        <v>5.805843548439388</v>
+        <v>6.342792655339087</v>
       </c>
       <c r="F10">
-        <v>2.786147104632326</v>
+        <v>3.950843607837109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>5.236022415491823</v>
+        <v>3.071036801745334</v>
       </c>
       <c r="C11">
-        <v>5.041205884434256</v>
+        <v>3.163415012379464</v>
       </c>
       <c r="D11">
-        <v>5.003977890881099</v>
+        <v>2.860396056612831</v>
       </c>
       <c r="E11">
-        <v>7.531325178676856</v>
+        <v>9.575785362100943</v>
       </c>
       <c r="F11">
-        <v>5.829928040706011</v>
+        <v>3.669280355105832</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>3.10828400189295</v>
+        <v>6.284108549066275</v>
       </c>
       <c r="C12">
-        <v>2.767775318004789</v>
+        <v>6.123234024921549</v>
       </c>
       <c r="D12">
-        <v>2.790807768077353</v>
+        <v>6.15800470232078</v>
       </c>
       <c r="E12">
-        <v>6.342792655339087</v>
+        <v>7.531983743800699</v>
       </c>
       <c r="F12">
-        <v>3.950843607837109</v>
+        <v>6.91799307739348</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>3.071036801745334</v>
+        <v>7.454700743998893</v>
       </c>
       <c r="C13">
-        <v>3.163415012379464</v>
+        <v>7.061626587186446</v>
       </c>
       <c r="D13">
-        <v>2.860396056612831</v>
+        <v>7.317883724416852</v>
       </c>
       <c r="E13">
-        <v>9.575785362100943</v>
+        <v>7.749370795304234</v>
       </c>
       <c r="F13">
-        <v>3.669280355105832</v>
+        <v>8.052198484655307</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>6.284108549066275</v>
+        <v>3.222310268623436</v>
       </c>
       <c r="C14">
-        <v>6.123234024921549</v>
+        <v>3.355979780230149</v>
       </c>
       <c r="D14">
-        <v>6.15800470232078</v>
+        <v>3.137061519463065</v>
       </c>
       <c r="E14">
-        <v>7.531983743800699</v>
+        <v>7.73666554903888</v>
       </c>
       <c r="F14">
-        <v>6.91799307739348</v>
+        <v>3.170913323369934</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>7.454700743998893</v>
+        <v>0.9840868883682601</v>
       </c>
       <c r="C15">
-        <v>7.061626587186446</v>
+        <v>1.003412966318237</v>
       </c>
       <c r="D15">
-        <v>7.317883724416852</v>
+        <v>1.012911844733975</v>
       </c>
       <c r="E15">
-        <v>7.749370795304234</v>
+        <v>1.710640936570713</v>
       </c>
       <c r="F15">
-        <v>8.052198484655307</v>
+        <v>1.078607391344959</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>3.222310268623436</v>
+        <v>3.533772020753016</v>
       </c>
       <c r="C16">
-        <v>3.355979780230149</v>
+        <v>3.300552615780291</v>
       </c>
       <c r="D16">
-        <v>3.137061519463065</v>
+        <v>3.353626647170507</v>
       </c>
       <c r="E16">
-        <v>7.73666554903888</v>
+        <v>7.35577397526854</v>
       </c>
       <c r="F16">
-        <v>3.170913323369934</v>
+        <v>4.254628646278282</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.9840868883682601</v>
+        <v>2.652938764620959</v>
       </c>
       <c r="C17">
-        <v>1.003412966318237</v>
+        <v>2.803609035140984</v>
       </c>
       <c r="D17">
-        <v>1.012911844733975</v>
+        <v>2.784254022742194</v>
       </c>
       <c r="E17">
-        <v>1.710640936570713</v>
+        <v>5.77374645061442</v>
       </c>
       <c r="F17">
-        <v>1.078607391344959</v>
+        <v>2.780006135329629</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>3.533772020753016</v>
+        <v>1.761327781314402</v>
       </c>
       <c r="C18">
-        <v>3.300552615780291</v>
+        <v>1.919434218789216</v>
       </c>
       <c r="D18">
-        <v>3.353626647170507</v>
+        <v>1.981193255073825</v>
       </c>
       <c r="E18">
-        <v>7.35577397526854</v>
+        <v>3.235981599639488</v>
       </c>
       <c r="F18">
-        <v>4.254628646278282</v>
+        <v>1.946091529033278</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>2.652938764620959</v>
+        <v>6.601750688781387</v>
       </c>
       <c r="C19">
-        <v>2.803609035140984</v>
+        <v>7.130298762554932</v>
       </c>
       <c r="D19">
-        <v>2.784254022742194</v>
+        <v>7.100540847306018</v>
       </c>
       <c r="E19">
-        <v>5.77374645061442</v>
+        <v>9.900156927028611</v>
       </c>
       <c r="F19">
-        <v>2.780006135329629</v>
+        <v>6.090307622318353</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>1.761327781314402</v>
+        <v>5.203863662628457</v>
       </c>
       <c r="C20">
-        <v>1.919434218789216</v>
+        <v>5.964023862553388</v>
       </c>
       <c r="D20">
-        <v>1.981193255073825</v>
+        <v>6.195236353902811</v>
       </c>
       <c r="E20">
-        <v>3.235981599639488</v>
+        <v>6.88053580536167</v>
       </c>
       <c r="F20">
-        <v>1.946091529033278</v>
+        <v>4.68798333090813</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>6.601750688781387</v>
+        <v>1.765450789316253</v>
       </c>
       <c r="C21">
-        <v>7.130298762554932</v>
+        <v>2.147189815238218</v>
       </c>
       <c r="D21">
-        <v>7.100540847306018</v>
+        <v>2.059670322224866</v>
       </c>
       <c r="E21">
-        <v>9.900156927028611</v>
+        <v>3.335067887137343</v>
       </c>
       <c r="F21">
-        <v>6.090307622318353</v>
+        <v>1.576250414961239</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>5.203863662628457</v>
+        <v>4.702704394541152</v>
       </c>
       <c r="C22">
-        <v>5.964023862553388</v>
+        <v>4.4024109312383</v>
       </c>
       <c r="D22">
-        <v>6.195236353902811</v>
+        <v>4.416189812891641</v>
       </c>
       <c r="E22">
-        <v>6.88053580536167</v>
+        <v>8.117490176420741</v>
       </c>
       <c r="F22">
-        <v>4.68798333090813</v>
+        <v>5.199069957091464</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1.765450789316253</v>
+        <v>4.31993516394769</v>
       </c>
       <c r="C23">
-        <v>2.147189815238218</v>
+        <v>4.824639928454059</v>
       </c>
       <c r="D23">
-        <v>2.059670322224866</v>
+        <v>4.35997320863754</v>
       </c>
       <c r="E23">
-        <v>3.335067887137343</v>
+        <v>11.4780764248109</v>
       </c>
       <c r="F23">
-        <v>1.576250414961239</v>
+        <v>3.8673260064933</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>4.702704394541152</v>
+        <v>1.826718136451686</v>
       </c>
       <c r="C24">
-        <v>4.4024109312383</v>
+        <v>1.764930548765878</v>
       </c>
       <c r="D24">
-        <v>4.416189812891641</v>
+        <v>1.813592583219432</v>
       </c>
       <c r="E24">
-        <v>8.117490176420741</v>
+        <v>2.818514696041972</v>
       </c>
       <c r="F24">
-        <v>5.199069957091464</v>
+        <v>2.092577786501869</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>4.31993516394769</v>
+        <v>0.6335089204839291</v>
       </c>
       <c r="C25">
-        <v>4.824639928454059</v>
+        <v>0.6658365828877231</v>
       </c>
       <c r="D25">
-        <v>4.35997320863754</v>
+        <v>0.6723178449657666</v>
       </c>
       <c r="E25">
-        <v>11.4780764248109</v>
+        <v>1.245771902931915</v>
       </c>
       <c r="F25">
-        <v>3.8673260064933</v>
+        <v>0.7016538216189184</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>1.826718136451686</v>
+        <v>1.302612608422857</v>
       </c>
       <c r="C26">
-        <v>1.764930548765878</v>
+        <v>1.362957726510637</v>
       </c>
       <c r="D26">
-        <v>1.813592583219432</v>
+        <v>1.357817650084673</v>
       </c>
       <c r="E26">
-        <v>2.818514696041972</v>
+        <v>2.42009807003344</v>
       </c>
       <c r="F26">
-        <v>2.092577786501869</v>
+        <v>1.381636013224315</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6335089204839291</v>
+        <v>2.407315699702987</v>
       </c>
       <c r="C27">
-        <v>0.6658365828877231</v>
+        <v>2.719321159263024</v>
       </c>
       <c r="D27">
-        <v>0.6723178449657666</v>
+        <v>2.765653817343363</v>
       </c>
       <c r="E27">
-        <v>1.245771902931915</v>
+        <v>5.222006481387144</v>
       </c>
       <c r="F27">
-        <v>0.7016538216189184</v>
+        <v>2.494458320581849</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>1.302612608422857</v>
+        <v>1.728734087931592</v>
       </c>
       <c r="C28">
-        <v>1.362957726510637</v>
+        <v>1.818676512356791</v>
       </c>
       <c r="D28">
-        <v>1.357817650084673</v>
+        <v>1.821246830749003</v>
       </c>
       <c r="E28">
-        <v>2.42009807003344</v>
+        <v>2.942325664799352</v>
       </c>
       <c r="F28">
-        <v>1.381636013224315</v>
+        <v>1.779177043657828</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>2.407315699702987</v>
+        <v>0.8083966146204127</v>
       </c>
       <c r="C29">
-        <v>2.719321159263024</v>
+        <v>0.8594923990378679</v>
       </c>
       <c r="D29">
-        <v>2.765653817343363</v>
+        <v>0.8771567362712938</v>
       </c>
       <c r="E29">
-        <v>5.222006481387144</v>
+        <v>1.721178701031846</v>
       </c>
       <c r="F29">
-        <v>2.494458320581849</v>
+        <v>0.938995255360828</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>1.728734087931592</v>
+        <v>0.7751994606129915</v>
       </c>
       <c r="C30">
-        <v>1.818676512356791</v>
+        <v>0.7919729533117065</v>
       </c>
       <c r="D30">
-        <v>1.821246830749003</v>
+        <v>0.8208041909692768</v>
       </c>
       <c r="E30">
-        <v>2.942325664799352</v>
+        <v>1.708578238748202</v>
       </c>
       <c r="F30">
-        <v>1.779177043657828</v>
+        <v>0.9255403655396442</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.8083966146204127</v>
+        <v>1.305192427816844</v>
       </c>
       <c r="C31">
-        <v>0.8594923990378679</v>
+        <v>1.351433840730143</v>
       </c>
       <c r="D31">
-        <v>0.8771567362712938</v>
+        <v>1.380091733438911</v>
       </c>
       <c r="E31">
-        <v>1.721178701031846</v>
+        <v>3.406294548435668</v>
       </c>
       <c r="F31">
-        <v>0.938995255360828</v>
+        <v>1.551535019894444</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.7751994606129915</v>
+        <v>1.794101615785898</v>
       </c>
       <c r="C32">
-        <v>0.7919729533117065</v>
+        <v>1.83778504037386</v>
       </c>
       <c r="D32">
-        <v>0.8208041909692768</v>
+        <v>1.929989684821863</v>
       </c>
       <c r="E32">
-        <v>1.708578238748202</v>
+        <v>3.280965645694612</v>
       </c>
       <c r="F32">
-        <v>0.9255403655396442</v>
+        <v>1.973466144571908</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>1.305192427816844</v>
+        <v>1.101374934961899</v>
       </c>
       <c r="C33">
-        <v>1.351433840730143</v>
+        <v>1.067450273583006</v>
       </c>
       <c r="D33">
-        <v>1.380091733438911</v>
+        <v>1.087244913586102</v>
       </c>
       <c r="E33">
-        <v>3.406294548435668</v>
+        <v>2.292158716129762</v>
       </c>
       <c r="F33">
-        <v>1.551535019894444</v>
+        <v>1.435542590978412</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1.794101615785898</v>
+        <v>1.130351956018701</v>
       </c>
       <c r="C34">
-        <v>1.83778504037386</v>
+        <v>1.17563858063361</v>
       </c>
       <c r="D34">
-        <v>1.929989684821863</v>
+        <v>1.167841348698784</v>
       </c>
       <c r="E34">
-        <v>3.280965645694612</v>
+        <v>2.369585492966</v>
       </c>
       <c r="F34">
-        <v>1.973466144571908</v>
+        <v>1.324859827490823</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1.101374934961899</v>
+        <v>2.080076987145662</v>
       </c>
       <c r="C35">
-        <v>1.067450273583006</v>
+        <v>2.090591194066537</v>
       </c>
       <c r="D35">
-        <v>1.087244913586102</v>
+        <v>2.133677648907387</v>
       </c>
       <c r="E35">
-        <v>2.292158716129762</v>
+        <v>4.137615591958586</v>
       </c>
       <c r="F35">
-        <v>1.435542590978412</v>
+        <v>2.531239608395113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1.130351956018701</v>
+        <v>2.437357008633603</v>
       </c>
       <c r="C36">
-        <v>1.17563858063361</v>
+        <v>2.6157826950602</v>
       </c>
       <c r="D36">
-        <v>1.167841348698784</v>
+        <v>2.646958361445976</v>
       </c>
       <c r="E36">
-        <v>2.369585492966</v>
+        <v>5.800508755901873</v>
       </c>
       <c r="F36">
-        <v>1.324859827490823</v>
+        <v>2.692115050540681</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>2.080076987145662</v>
+        <v>1.790357826237758</v>
       </c>
       <c r="C37">
-        <v>2.090591194066537</v>
+        <v>1.896346767435824</v>
       </c>
       <c r="D37">
-        <v>2.133677648907387</v>
+        <v>1.860677474287567</v>
       </c>
       <c r="E37">
-        <v>4.137615591958586</v>
+        <v>3.883622671722543</v>
       </c>
       <c r="F37">
-        <v>2.531239608395113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.437357008633603</v>
-      </c>
-      <c r="C38">
-        <v>2.6157826950602</v>
-      </c>
-      <c r="D38">
-        <v>2.646958361445976</v>
-      </c>
-      <c r="E38">
-        <v>5.800508755901873</v>
-      </c>
-      <c r="F38">
-        <v>2.692115050540681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>1.790357826237758</v>
-      </c>
-      <c r="C39">
-        <v>1.896346767435824</v>
-      </c>
-      <c r="D39">
-        <v>1.860677474287567</v>
-      </c>
-      <c r="E39">
-        <v>3.883622671722543</v>
-      </c>
-      <c r="F39">
         <v>2.079500970970706</v>
       </c>
     </row>
